--- a/Asserts/OutputTemplate.xlsx
+++ b/Asserts/OutputTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6AAEC6-C627-4F76-A927-566A39E77ACD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2C6AAEC6-C627-4F76-A927-566A39E77ACD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{EF556003-52E2-41D3-9A2C-42462016D522}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Teams</t>
   </si>
@@ -35,6 +35,60 @@
   </si>
   <si>
     <t>B's</t>
+  </si>
+  <si>
+    <t>bet365_1</t>
+  </si>
+  <si>
+    <t>bet365_X</t>
+  </si>
+  <si>
+    <t>bet365_2</t>
+  </si>
+  <si>
+    <t>bet365_Payout</t>
+  </si>
+  <si>
+    <t>Pinnacle_1</t>
+  </si>
+  <si>
+    <t>Pinnacle_X</t>
+  </si>
+  <si>
+    <t>Pinnacle_2</t>
+  </si>
+  <si>
+    <t>Pinnacle_Payout</t>
+  </si>
+  <si>
+    <t>Unibet_1</t>
+  </si>
+  <si>
+    <t>Unibet_X</t>
+  </si>
+  <si>
+    <t>Unibet_2</t>
+  </si>
+  <si>
+    <t>Unibet_Payout</t>
+  </si>
+  <si>
+    <t>WilliamHill_1</t>
+  </si>
+  <si>
+    <t>WilliamHill_X</t>
+  </si>
+  <si>
+    <t>WilliamHill_2</t>
+  </si>
+  <si>
+    <t>WilliamHill_Payout</t>
+  </si>
+  <si>
+    <t>Match Date</t>
+  </si>
+  <si>
+    <t>Match Result</t>
   </si>
 </sst>
 </file>
@@ -105,13 +159,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,41 +458,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" style="6" customWidth="1"/>
+    <col min="4" max="7" width="12.85546875" style="6" customWidth="1"/>
+    <col min="8" max="9" width="28.7109375" style="6" customWidth="1"/>
+    <col min="10" max="25" width="12.85546875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
